--- a/i7495/evidence.xlsx
+++ b/i7495/evidence.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>TeamName</t>
   </si>
@@ -99,34 +99,100 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>2D22D4948D22929460DB1A0DFCCB45E27FF1DC31053B9F2641CD63D1C2580A8D</t>
+  </si>
+  <si>
+    <t>stakeflow1gon</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>3A7196277593FD2DBB3E9F98E790704D82A513C0100A724D96765A9BC6B2C68D</t>
+  </si>
+  <si>
+    <t>nft0001</t>
+  </si>
+  <si>
+    <t>F458B47E04BDDB39918E9CAD9FD4D362FF173FCBAE0D862D0968C1F667711C70</t>
+  </si>
+  <si>
+    <t>nft0002</t>
+  </si>
+  <si>
+    <t>A3A3F3D51C4BABF834E6D716CE4F8EC933C9D33E5A1D533B1C835D1C36EA99FD</t>
+  </si>
+  <si>
+    <t>nft0003</t>
+  </si>
+  <si>
+    <t>FFFECFD1201B031C1150BECCD6168C7BC5CE7156E69BA956727B6E4D5BBC8074</t>
+  </si>
+  <si>
+    <t>nft0004</t>
+  </si>
+  <si>
+    <t>8133891824C0A5ABDFFEB80E9DBD0BF627A44BDEEA6F1F8178204211B55D6B3C</t>
+  </si>
+  <si>
+    <t>nft0005</t>
+  </si>
+  <si>
+    <t>A2DCA99C382285B604062DC83D644CDF2B3643B636B26032BD2D4AB07B99F55B</t>
+  </si>
+  <si>
+    <t>nft0006</t>
+  </si>
+  <si>
+    <t>A0E64FC1A8732094D214FCB83F692804A99D7BF26AEA3B4CEB4148B140D7E469</t>
+  </si>
+  <si>
+    <t>nft0007</t>
+  </si>
+  <si>
+    <t>8C60E1E0B5C84F5A72FD34CE48F8891368E6E973EB8362A3F3D59D2B71B2EACC</t>
+  </si>
+  <si>
+    <t>nft0008</t>
+  </si>
+  <si>
+    <t>2BF7FD1E8376AF19FBDF973D5E4581B1D1E35265F565708A8116C99FA1374A2E</t>
+  </si>
+  <si>
+    <t>nft0009</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>28D46175FA3E79443D1B51DCEFEBE20357A9FE10846E129F9AC5440A7FE2FC04</t>
+  </si>
+  <si>
+    <t>stars1vtvmyem3u9te9p3zlq6kcnshrmkt0cf3xucjhrur2mgny2qtqn8qt39xl8</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>63A73D24A7E68564AC6BBEA9D1EAEF20D1DF8CAAB5EA3D6027D74BEFD61C8856</t>
+  </si>
+  <si>
+    <t>ibc/95CB166E49231B6FBB87838B4DFCDF9A329DBB7A51C000696F76AAA86E31BB5A</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>B071C86E2D1818CC763DB3871EE4528D830075A589B1D4C8BE2B25EE5B7BF371</t>
+  </si>
+  <si>
+    <t>9D718EEABCDB3599B285CC849C870F5FE14A82ED859A34B72EEE273290BF5E2F</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -313,13 +379,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -354,12 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -568,7 +634,7 @@
           <a:effectLst>
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -648,7 +714,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -676,10 +742,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -937,7 +1003,7 @@
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1225,7 +1291,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1253,10 +1319,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1676,10 +1742,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -1690,75 +1756,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,10 +1843,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -1791,75 +1857,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,10 +1944,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -1892,75 +1958,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,10 +2045,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="21" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -1993,75 +2059,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2080,10 +2146,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="22" customWidth="1"/>
+    <col min="1" max="1" width="16" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="23" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -2091,82 +2157,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2196,82 +2262,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2301,82 +2367,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,82 +2472,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2511,82 +2577,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,82 +2682,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2723,75 +2789,75 @@
         <v>17</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
+      <c r="A2" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="10">
+      <c r="B2" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2821,82 +2887,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2926,82 +2992,82 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>30</v>
+      <c r="A3" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" t="s" s="23">
-        <v>30</v>
+      <c r="A4" t="s" s="12">
+        <v>52</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3030,76 +3096,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="16.4" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,76 +3194,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3226,76 +3292,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3324,76 +3390,76 @@
         <v>16</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,10 +3478,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16" style="11" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16" style="10" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3429,76 +3495,124 @@
         <v>20</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="10">
+      <c r="A2" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C2" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="A5" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,11 +3631,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3535,80 +3649,80 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3627,11 +3741,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3645,80 +3759,80 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s" s="10">
+      <c r="A2" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="D2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3737,11 +3851,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="14" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3755,80 +3869,80 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3847,12 +3961,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3866,80 +3980,80 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s" s="10">
+      <c r="A2" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="D2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,10 +4072,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="16" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="17" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -3972,75 +4086,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4059,10 +4173,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="17" customWidth="1"/>
-    <col min="3" max="5" width="8.85156" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="18" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -4073,75 +4187,75 @@
         <v>20</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
